--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Adjara A.R/C. Batumi Municipality.xlsx
@@ -60,7 +60,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Data is confidential or unavailable.</t>
+      <t xml:space="preserve"> „ ...“ Data is confidential or unavailable.</t>
     </r>
   </si>
 </sst>
@@ -197,12 +197,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -223,6 +217,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,42 +516,42 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" s="2">
         <v>2010</v>
       </c>
@@ -589,8 +589,8 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -630,8 +630,8 @@
         <v>11609</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
@@ -671,8 +671,8 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
@@ -712,8 +712,8 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7">
@@ -753,8 +753,8 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
@@ -794,22 +794,22 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Adjara A.R/C. Batumi Municipality.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3EFC81-7E1C-4B0D-BD8E-080AF3FCF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="420" yWindow="3120" windowWidth="18780" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C. Batumi" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Number of Rooms in Hotels and Hotel-type enterprises in C. Batumi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>(Unit)</t>
   </si>
@@ -42,37 +40,18 @@
     <t>Three and more places</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> „ ...“ Data is confidential or unavailable.</t>
-    </r>
+    <t>Number of Rooms in Hotels and Hotel-type enterprises in City Batumi Municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,14 +88,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -143,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,54 +142,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -226,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,12 +489,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,42 +500,42 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
       <c r="B3" s="2">
         <v>2010</v>
       </c>
@@ -588,232 +572,247 @@
       <c r="M3" s="2">
         <v>2021</v>
       </c>
+      <c r="N3" s="2">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1254</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1791</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2086</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2206</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2785</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4090</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5640</v>
+      </c>
+      <c r="I4" s="14">
+        <v>6111</v>
+      </c>
+      <c r="J4" s="14">
+        <v>6544</v>
+      </c>
+      <c r="K4" s="14">
+        <v>6849</v>
+      </c>
+      <c r="L4" s="14">
+        <v>5095</v>
+      </c>
+      <c r="M4" s="14">
+        <v>11609</v>
+      </c>
+      <c r="N4" s="14">
+        <v>10154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>1254</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1791</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2086</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2206</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2785</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4090</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5640</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6111</v>
-      </c>
-      <c r="J4" s="3">
-        <v>6544</v>
-      </c>
-      <c r="K4" s="3">
-        <v>6849</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5095</v>
-      </c>
-      <c r="M4" s="3">
-        <v>11609</v>
+      <c r="B5" s="3">
+        <v>243</v>
+      </c>
+      <c r="C5" s="3">
+        <v>313</v>
+      </c>
+      <c r="D5" s="3">
+        <v>451</v>
+      </c>
+      <c r="E5" s="3">
+        <v>481</v>
+      </c>
+      <c r="F5" s="3">
+        <v>538</v>
+      </c>
+      <c r="G5" s="3">
+        <v>702</v>
+      </c>
+      <c r="H5" s="3">
+        <v>873</v>
+      </c>
+      <c r="I5" s="3">
+        <v>862</v>
+      </c>
+      <c r="J5" s="3">
+        <v>943</v>
+      </c>
+      <c r="K5" s="3">
+        <v>919</v>
+      </c>
+      <c r="L5" s="3">
+        <v>727</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1039</v>
+      </c>
+      <c r="N5" s="3">
+        <v>929</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>243</v>
-      </c>
-      <c r="C5" s="5">
-        <v>313</v>
-      </c>
-      <c r="D5" s="5">
-        <v>451</v>
-      </c>
-      <c r="E5" s="4">
-        <v>481</v>
-      </c>
-      <c r="F5" s="4">
-        <v>538</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="B6" s="4">
+        <v>427</v>
+      </c>
+      <c r="C6" s="3">
         <v>702</v>
       </c>
-      <c r="H5" s="4">
-        <v>873</v>
-      </c>
-      <c r="I5" s="4">
-        <v>862</v>
-      </c>
-      <c r="J5" s="4">
-        <v>943</v>
-      </c>
-      <c r="K5" s="4">
-        <v>919</v>
-      </c>
-      <c r="L5" s="4">
-        <v>727</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1039</v>
+      <c r="D6" s="3">
+        <v>434</v>
+      </c>
+      <c r="E6" s="3">
+        <v>511</v>
+      </c>
+      <c r="F6" s="3">
+        <v>642</v>
+      </c>
+      <c r="G6" s="3">
+        <v>703</v>
+      </c>
+      <c r="H6" s="3">
+        <v>932</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1076</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1136</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1351</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1010</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4607</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2281</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>427</v>
-      </c>
-      <c r="C6" s="5">
-        <v>702</v>
-      </c>
-      <c r="D6" s="5">
-        <v>434</v>
-      </c>
-      <c r="E6" s="4">
-        <v>511</v>
-      </c>
-      <c r="F6" s="4">
-        <v>642</v>
-      </c>
-      <c r="G6" s="4">
-        <v>703</v>
-      </c>
-      <c r="H6" s="4">
-        <v>932</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1076</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1136</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1351</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M6" s="4">
-        <v>4607</v>
+      <c r="B7" s="5">
+        <v>500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>668</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1042</v>
+      </c>
+      <c r="E7" s="3">
+        <v>970</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1239</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2203</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3067</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3202</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3295</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3348</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2585</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4805</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5232</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>500</v>
-      </c>
-      <c r="C7" s="5">
-        <v>668</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1042</v>
-      </c>
-      <c r="E7" s="4">
-        <v>970</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1239</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2203</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3067</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3202</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3295</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3348</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2585</v>
-      </c>
-      <c r="M7" s="4">
-        <v>4805</v>
+      <c r="B8" s="15">
+        <v>84</v>
+      </c>
+      <c r="C8" s="16">
+        <v>108</v>
+      </c>
+      <c r="D8" s="16">
+        <v>159</v>
+      </c>
+      <c r="E8" s="16">
+        <v>244</v>
+      </c>
+      <c r="F8" s="16">
+        <v>366</v>
+      </c>
+      <c r="G8" s="16">
+        <v>482</v>
+      </c>
+      <c r="H8" s="16">
+        <v>768</v>
+      </c>
+      <c r="I8" s="16">
+        <v>971</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1170</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1231</v>
+      </c>
+      <c r="L8" s="16">
+        <v>773</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1158</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1712</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>84</v>
-      </c>
-      <c r="C8" s="4">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4">
-        <v>159</v>
-      </c>
-      <c r="E8" s="4">
-        <v>244</v>
-      </c>
-      <c r="F8" s="4">
-        <v>366</v>
-      </c>
-      <c r="G8" s="4">
-        <v>482</v>
-      </c>
-      <c r="H8" s="4">
-        <v>768</v>
-      </c>
-      <c r="I8" s="4">
-        <v>971</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1170</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1231</v>
-      </c>
-      <c r="L8" s="4">
-        <v>773</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+    <row r="9" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Adjara A.R/C. Batumi Municipality.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3EFC81-7E1C-4B0D-BD8E-080AF3FCF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\1.1 Number of Rooms in Hotels and Hotel-type enterprises\Adjara\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF3C61-6CDC-499E-847B-E2D01457F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="3120" windowWidth="18780" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C. Batumi" sheetId="1" r:id="rId1"/>
+    <sheet name="C.Batumi" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>(Unit)</t>
+    <t>(unit)</t>
   </si>
   <si>
     <t>Total number of rooms</t>
@@ -40,7 +45,13 @@
     <t>Three and more places</t>
   </si>
   <si>
-    <t>Number of Rooms in Hotels and Hotel-type enterprises in City Batumi Municipality</t>
+    <t>(Declared data)</t>
+  </si>
+  <si>
+    <t>* Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches).</t>
+  </si>
+  <si>
+    <t>Number of rooms in hotels and hotel-type enterprises* in Batumi City</t>
   </si>
 </sst>
 </file>
@@ -48,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="###0"/>
-    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +79,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -82,36 +100,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -125,7 +124,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -134,10 +135,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -156,58 +155,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -273,9 +275,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -308,9 +310,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -490,331 +492,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="19"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>2010</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="7">
         <v>2011</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="7">
         <v>2012</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="7">
         <v>2013</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="7">
         <v>2014</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="7">
         <v>2015</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="7">
         <v>2016</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="7">
         <v>2017</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="7">
         <v>2018</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="7">
         <v>2019</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L4" s="7">
         <v>2020</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M4" s="7">
         <v>2021</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N4" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="O4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B5" s="9">
         <v>1254</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C5" s="9">
         <v>1791</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D5" s="9">
         <v>2086</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E5" s="9">
         <v>2206</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F5" s="9">
         <v>2785</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G5" s="9">
         <v>4090</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H5" s="9">
         <v>5640</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I5" s="9">
         <v>6111</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J5" s="9">
         <v>6544</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K5" s="9">
         <v>6849</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L5" s="9">
         <v>5095</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M5" s="9">
         <v>11609</v>
       </c>
-      <c r="N4" s="14">
-        <v>10154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="N5" s="9">
+        <v>10164</v>
+      </c>
+      <c r="O5" s="9">
+        <v>12052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="11">
         <v>243</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="11">
         <v>313</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="11">
         <v>451</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="11">
         <v>481</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="11">
         <v>538</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="11">
         <v>702</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="11">
         <v>873</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="11">
         <v>862</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="11">
         <v>943</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="11">
         <v>919</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="11">
         <v>727</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="11">
         <v>1039</v>
       </c>
-      <c r="N5" s="3">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="N6" s="11">
+        <v>930</v>
+      </c>
+      <c r="O6" s="11">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="13">
         <v>427</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="11">
         <v>702</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="13">
         <v>434</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="13">
         <v>511</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="13">
         <v>642</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="13">
         <v>703</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="13">
         <v>932</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="13">
         <v>1076</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="13">
         <v>1136</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="13">
         <v>1351</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L7" s="13">
         <v>1010</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M7" s="13">
         <v>4607</v>
       </c>
-      <c r="N6" s="3">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="N7" s="13">
+        <v>2285</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="14">
         <v>500</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="11">
         <v>668</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="14">
         <v>1042</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="14">
         <v>970</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="14">
         <v>1239</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="14">
         <v>2203</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="14">
         <v>3067</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="14">
         <v>3202</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="14">
         <v>3295</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="14">
         <v>3348</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L8" s="14">
         <v>2585</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="14">
         <v>4805</v>
       </c>
-      <c r="N7" s="3">
-        <v>5232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="N8" s="14">
+        <v>5236</v>
+      </c>
+      <c r="O8" s="14">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B9" s="16">
         <v>84</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C9" s="17">
         <v>108</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <v>159</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>244</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>366</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="16">
         <v>482</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="16">
         <v>768</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="16">
         <v>971</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J9" s="16">
         <v>1170</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="16">
         <v>1231</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L9" s="16">
         <v>773</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M9" s="16">
         <v>1158</v>
       </c>
-      <c r="N8" s="16">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="N9" s="16">
+        <v>1713</v>
+      </c>
+      <c r="O9" s="16">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>